--- a/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>合煦智远嘉选混合C</t>
   </si>
   <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
     <t>75.31</t>
   </si>
   <si>
     <t>3.92</t>
+  </si>
+  <si>
+    <t>0.0451</t>
+  </si>
+  <si>
+    <t>0.0243</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>006323</t>
-  </si>
-  <si>
-    <t>006324</t>
-  </si>
-  <si>
-    <t>合煦智远嘉选混合A</t>
-  </si>
-  <si>
-    <t>合煦智远嘉选混合C</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>75.31</t>
-  </si>
-  <si>
-    <t>3.92</t>
-  </si>
-  <si>
-    <t>0.0451</t>
-  </si>
-  <si>
-    <t>0.0243</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,291 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -866,7 +867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,17 +878,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -897,14 +918,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -913,13 +956,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -999,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,17 +1011,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1030,14 +1051,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1046,14 +1089,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -1062,13 +1127,171 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006323</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006324</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>570005</t>
+          <t>519656</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺德成长优势混合</t>
+          <t>银河灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.26</t>
+          <t>64.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0993</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003655</t>
+          <t>519657</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银新财富灵活配置混合</t>
+          <t>银河灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.69</t>
+          <t>64.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0830</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -713,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003561</t>
+          <t>010765</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺德成长精选灵活配置混合A</t>
+          <t>国寿安保华丰混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.62</t>
+          <t>89.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -751,110 +719,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519656</t>
+          <t>010766</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - A</t>
+          <t>国寿安保华丰混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>89.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519657</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>66.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003562</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>22.62</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,36 +943,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519656</t>
+          <t>570005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - A</t>
+          <t>诺德成长优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.76</t>
+          <t>71.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0279</t>
+          <t>0.0993</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1089,36 +981,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519657</t>
+          <t>003655</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - C</t>
+          <t>信达澳银新财富灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64.76</t>
+          <t>24.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0830</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1127,36 +1019,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010765</t>
+          <t>003561</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保华丰混合A</t>
+          <t>诺德成长精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>22.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1165,34 +1057,110 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010766</t>
+          <t>519656</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国寿安保华丰混合C</t>
+          <t>银河灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>6</v>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1206,96 +1174,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -549,6 +566,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -754,7 +1283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -886,7 +1415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1168,7 +1697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300041-回天新材.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -566,6 +583,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016238</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016237</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003697</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰盛混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1077,7 +1644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1283,7 +1850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1697,7 +2264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
